--- a/Code/Results/Cases/Case_5_233/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_233/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.449608982848815</v>
+        <v>2.179726059491315</v>
       </c>
       <c r="C2">
-        <v>0.4864929202748556</v>
+        <v>0.1228732742893044</v>
       </c>
       <c r="D2">
-        <v>0.3639435445689685</v>
+        <v>0.2304411993544448</v>
       </c>
       <c r="E2">
-        <v>0.03588084626940358</v>
+        <v>0.05807592456839572</v>
       </c>
       <c r="F2">
-        <v>6.609572557456005</v>
+        <v>3.901996374871942</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3255791882685628</v>
+        <v>0.2541781385875055</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972180362048562</v>
+        <v>2.089191184859203</v>
       </c>
       <c r="C3">
-        <v>0.4173912933536315</v>
+        <v>0.1063440053391673</v>
       </c>
       <c r="D3">
-        <v>0.3272514664943031</v>
+        <v>0.220427376401247</v>
       </c>
       <c r="E3">
-        <v>0.03423358134013377</v>
+        <v>0.05772313933465512</v>
       </c>
       <c r="F3">
-        <v>5.827592025316591</v>
+        <v>3.702702403507089</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2844073727669922</v>
+        <v>0.2461069628529629</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.688159322699562</v>
+        <v>2.035691974967222</v>
       </c>
       <c r="C4">
-        <v>0.376084321748408</v>
+        <v>0.0962401253910059</v>
       </c>
       <c r="D4">
-        <v>0.3053857047249551</v>
+        <v>0.2142908285513698</v>
       </c>
       <c r="E4">
-        <v>0.03326228356609029</v>
+        <v>0.05751285478061874</v>
       </c>
       <c r="F4">
-        <v>5.361376330947166</v>
+        <v>3.581514854234285</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2599289620537206</v>
+        <v>0.2413381715008285</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.574390697253705</v>
+        <v>2.014412456097944</v>
       </c>
       <c r="C5">
-        <v>0.3594820757327284</v>
+        <v>0.0921332781626063</v>
       </c>
       <c r="D5">
-        <v>0.2966154138389072</v>
+        <v>0.2117925400974059</v>
       </c>
       <c r="E5">
-        <v>0.03287523313439955</v>
+        <v>0.05742872881557304</v>
       </c>
       <c r="F5">
-        <v>5.174370822251916</v>
+        <v>3.532417022318725</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2501285801123174</v>
+        <v>0.239441537443227</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555609946881589</v>
+        <v>2.010910423114012</v>
       </c>
       <c r="C6">
-        <v>0.3567378376073123</v>
+        <v>0.09145195467456801</v>
       </c>
       <c r="D6">
-        <v>0.2951668600957191</v>
+        <v>0.211377828750912</v>
       </c>
       <c r="E6">
-        <v>0.03281145695859777</v>
+        <v>0.05741485368395338</v>
       </c>
       <c r="F6">
-        <v>5.14348467832167</v>
+        <v>3.524281425495758</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2485110672404574</v>
+        <v>0.2391294133544761</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.686617410685471</v>
+        <v>2.035402883674635</v>
       </c>
       <c r="C7">
-        <v>0.3758595472476429</v>
+        <v>0.09618469726524381</v>
       </c>
       <c r="D7">
-        <v>0.3052668908642175</v>
+        <v>0.2142571268249185</v>
       </c>
       <c r="E7">
-        <v>0.03325702983736178</v>
+        <v>0.05751171391678689</v>
       </c>
       <c r="F7">
-        <v>5.358842882477063</v>
+        <v>3.580851553921462</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2597961160942361</v>
+        <v>0.241312404213744</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282891889493499</v>
+        <v>2.148073715398198</v>
       </c>
       <c r="C8">
-        <v>0.4624007760196776</v>
+        <v>0.1171641256604516</v>
       </c>
       <c r="D8">
-        <v>0.3511374025060547</v>
+        <v>0.2269855772361637</v>
       </c>
       <c r="E8">
-        <v>0.03530368749225232</v>
+        <v>0.05795295624357522</v>
       </c>
       <c r="F8">
-        <v>6.33672287938694</v>
+        <v>3.833029101149691</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3111997331511844</v>
+        <v>0.2513561983885779</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.541540760341434</v>
+        <v>2.385782493052375</v>
       </c>
       <c r="C9">
-        <v>0.6437437178678636</v>
+        <v>0.158701129582397</v>
       </c>
       <c r="D9">
-        <v>0.4477488117747015</v>
+        <v>0.2520696190262015</v>
       </c>
       <c r="E9">
-        <v>0.03970568219351911</v>
+        <v>0.05886958666623165</v>
       </c>
       <c r="F9">
-        <v>8.392101077003218</v>
+        <v>4.337368848030678</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4197629133534804</v>
+        <v>0.2725515286154945</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.549247310467251</v>
+        <v>2.570925862391903</v>
       </c>
       <c r="C10">
-        <v>0.7887119663060389</v>
+        <v>0.1895164179622668</v>
       </c>
       <c r="D10">
-        <v>0.5251191044738732</v>
+        <v>0.2706153454228968</v>
       </c>
       <c r="E10">
-        <v>0.0432943371443244</v>
+        <v>0.05957602564258835</v>
       </c>
       <c r="F10">
-        <v>10.0316613861859</v>
+        <v>4.714570110744347</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5065973390481702</v>
+        <v>0.2890626982863296</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.033866593517246</v>
+        <v>2.657496254550779</v>
       </c>
       <c r="C11">
-        <v>0.8585604712306178</v>
+        <v>0.2036124836000965</v>
       </c>
       <c r="D11">
-        <v>0.5623679927703051</v>
+        <v>0.2790866267354488</v>
       </c>
       <c r="E11">
-        <v>0.04503767235559231</v>
+        <v>0.05990494031451554</v>
       </c>
       <c r="F11">
-        <v>10.81858630513449</v>
+        <v>4.887765828894601</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5483021741222416</v>
+        <v>0.29678359886816</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.222018769731903</v>
+        <v>2.69062076682377</v>
       </c>
       <c r="C12">
-        <v>0.885717156608365</v>
+        <v>0.2089625199811849</v>
       </c>
       <c r="D12">
-        <v>0.576838797084406</v>
+        <v>0.2823001902308988</v>
       </c>
       <c r="E12">
-        <v>0.0457173779196296</v>
+        <v>0.06003060721674203</v>
       </c>
       <c r="F12">
-        <v>11.1238511983359</v>
+        <v>4.953593037336759</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5644820122678453</v>
+        <v>0.2997379184984936</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.181274613748485</v>
+        <v>2.68347151721224</v>
       </c>
       <c r="C13">
-        <v>0.8798343604686067</v>
+        <v>0.2078097377757047</v>
       </c>
       <c r="D13">
-        <v>0.573704707219008</v>
+        <v>0.2816078286330992</v>
       </c>
       <c r="E13">
-        <v>0.04557005563663985</v>
+        <v>0.06000349260095206</v>
       </c>
       <c r="F13">
-        <v>11.05775841299584</v>
+        <v>4.939405041871169</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5609788899711248</v>
+        <v>0.2991002862563619</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.049247366305622</v>
+        <v>2.660214543484358</v>
       </c>
       <c r="C14">
-        <v>0.8607795499757458</v>
+        <v>0.2040523850908187</v>
       </c>
       <c r="D14">
-        <v>0.5635507315478776</v>
+        <v>0.2793508909241211</v>
       </c>
       <c r="E14">
-        <v>0.04509317687873526</v>
+        <v>0.05991525651617025</v>
       </c>
       <c r="F14">
-        <v>10.84354595224448</v>
+        <v>4.893176564512942</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5496250826460027</v>
+        <v>0.2970260372742501</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.969009903640085</v>
+        <v>2.646013676394716</v>
       </c>
       <c r="C15">
-        <v>0.8492048496781024</v>
+        <v>0.2017525102867523</v>
       </c>
       <c r="D15">
-        <v>0.5573810731994797</v>
+        <v>0.2779692104936089</v>
       </c>
       <c r="E15">
-        <v>0.04480374083883021</v>
+        <v>0.0598613552913303</v>
       </c>
       <c r="F15">
-        <v>10.71332752975815</v>
+        <v>4.864892098538348</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.542723310849496</v>
+        <v>0.295759494666072</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.51817365437671</v>
+        <v>2.565315914551661</v>
       </c>
       <c r="C16">
-        <v>0.7842374021903993</v>
+        <v>0.1885968570958596</v>
       </c>
       <c r="D16">
-        <v>0.5227317750152451</v>
+        <v>0.2700624840178136</v>
       </c>
       <c r="E16">
-        <v>0.04318292654062539</v>
+        <v>0.05955468465093716</v>
       </c>
       <c r="F16">
-        <v>9.981170846457587</v>
+        <v>4.703284591627494</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5039218383756321</v>
+        <v>0.2885623767262615</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.248873419965605</v>
+        <v>2.51641497859498</v>
       </c>
       <c r="C17">
-        <v>0.7454747586394035</v>
+        <v>0.1805469389481686</v>
       </c>
       <c r="D17">
-        <v>0.5020467363879391</v>
+        <v>0.2652213400374137</v>
       </c>
       <c r="E17">
-        <v>0.04221932091687641</v>
+        <v>0.05936850623124101</v>
       </c>
       <c r="F17">
-        <v>9.543421911749647</v>
+        <v>4.60456242849321</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4807282117884881</v>
+        <v>0.2842012165261849</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.096384200570753</v>
+        <v>2.488509151719484</v>
       </c>
       <c r="C18">
-        <v>0.723536352197641</v>
+        <v>0.1759241264217053</v>
       </c>
       <c r="D18">
-        <v>0.4903374828095934</v>
+        <v>0.2624400706334598</v>
       </c>
       <c r="E18">
-        <v>0.04167525662895599</v>
+        <v>0.0592621304535399</v>
       </c>
       <c r="F18">
-        <v>9.295410274843306</v>
+        <v>4.547930452495763</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4675902729151602</v>
+        <v>0.2817125234062985</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.045143586199686</v>
+        <v>2.479098486112093</v>
       </c>
       <c r="C19">
-        <v>0.7161657639991859</v>
+        <v>0.1743601448848153</v>
       </c>
       <c r="D19">
-        <v>0.4864033573224731</v>
+        <v>0.2614989146065057</v>
       </c>
       <c r="E19">
-        <v>0.04149269633217578</v>
+        <v>0.05922623438877395</v>
       </c>
       <c r="F19">
-        <v>9.212048268108362</v>
+        <v>4.528781339271575</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4631748534537223</v>
+        <v>0.2808732714517248</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.27728627274854</v>
+        <v>2.521597692578609</v>
       </c>
       <c r="C20">
-        <v>0.7495632276869912</v>
+        <v>0.181403105509844</v>
       </c>
       <c r="D20">
-        <v>0.5042287512918335</v>
+        <v>0.2657363490518492</v>
       </c>
       <c r="E20">
-        <v>0.04232082159434292</v>
+        <v>0.05938825164811945</v>
       </c>
       <c r="F20">
-        <v>9.589621880107472</v>
+        <v>4.615055926583352</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4831758012269773</v>
+        <v>0.2846634245373139</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.087893207044033</v>
+        <v>2.66703635642574</v>
       </c>
       <c r="C21">
-        <v>0.8663559011556856</v>
+        <v>0.2051556729606432</v>
       </c>
       <c r="D21">
-        <v>0.5665226435537818</v>
+        <v>0.2800136488241947</v>
       </c>
       <c r="E21">
-        <v>0.04523268450411955</v>
+        <v>0.05994114313185506</v>
       </c>
       <c r="F21">
-        <v>10.90625554687176</v>
+        <v>4.906748339658407</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5529488272902796</v>
+        <v>0.2976344612404915</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.645259448561831</v>
+        <v>2.764085669484757</v>
       </c>
       <c r="C22">
-        <v>0.946899862178384</v>
+        <v>0.2207506932515173</v>
       </c>
       <c r="D22">
-        <v>0.6094103914124958</v>
+        <v>0.2893780780115662</v>
       </c>
       <c r="E22">
-        <v>0.04725198571971667</v>
+        <v>0.06030899662811606</v>
       </c>
       <c r="F22">
-        <v>11.810018357275</v>
+        <v>5.098800512015487</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6008507324658154</v>
+        <v>0.306290233872204</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.344916703530487</v>
+        <v>2.712104371091243</v>
       </c>
       <c r="C23">
-        <v>0.9034688332932603</v>
+        <v>0.2124204924413675</v>
       </c>
       <c r="D23">
-        <v>0.5862938040410768</v>
+        <v>0.2843768244978833</v>
       </c>
       <c r="E23">
-        <v>0.04616219106597619</v>
+        <v>0.06011206150081705</v>
       </c>
       <c r="F23">
-        <v>11.32316903632875</v>
+        <v>4.99616557335878</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5750465111717062</v>
+        <v>0.301654021518786</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.264433611665538</v>
+        <v>2.519253940143017</v>
       </c>
       <c r="C24">
-        <v>0.747713761279698</v>
+        <v>0.1810160165042589</v>
       </c>
       <c r="D24">
-        <v>0.5032416979066738</v>
+        <v>0.2655035073959198</v>
       </c>
       <c r="E24">
-        <v>0.04227490248347365</v>
+        <v>0.05937932268940038</v>
       </c>
       <c r="F24">
-        <v>9.568723585637059</v>
+        <v>4.610311428477075</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4820686394380829</v>
+        <v>0.2844544024032416</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.188839329033613</v>
+        <v>2.319653025489401</v>
       </c>
       <c r="C25">
-        <v>0.5930130923986496</v>
+        <v>0.1474160792265025</v>
       </c>
       <c r="D25">
-        <v>0.4206837043529958</v>
+        <v>0.2452662655368698</v>
       </c>
       <c r="E25">
-        <v>0.03846235118307639</v>
+        <v>0.05861594346739274</v>
       </c>
       <c r="F25">
-        <v>7.8170943764963</v>
+        <v>4.199810963210666</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3893454176643871</v>
+        <v>0.2666545708321735</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_233/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_233/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.179726059491315</v>
+        <v>3.449608982848702</v>
       </c>
       <c r="C2">
-        <v>0.1228732742893044</v>
+        <v>0.4864929202743724</v>
       </c>
       <c r="D2">
-        <v>0.2304411993544448</v>
+        <v>0.3639435445692243</v>
       </c>
       <c r="E2">
-        <v>0.05807592456839572</v>
+        <v>0.03588084626940535</v>
       </c>
       <c r="F2">
-        <v>3.901996374871942</v>
+        <v>6.609572557455976</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2541781385875055</v>
+        <v>0.3255791882686907</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.089191184859203</v>
+        <v>2.972180362048505</v>
       </c>
       <c r="C3">
-        <v>0.1063440053391673</v>
+        <v>0.4173912933545694</v>
       </c>
       <c r="D3">
-        <v>0.220427376401247</v>
+        <v>0.3272514664943031</v>
       </c>
       <c r="E3">
-        <v>0.05772313933465512</v>
+        <v>0.03423358134018883</v>
       </c>
       <c r="F3">
-        <v>3.702702403507089</v>
+        <v>5.827592025316591</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2461069628529629</v>
+        <v>0.2844073727672622</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.035691974967222</v>
+        <v>2.688159322699619</v>
       </c>
       <c r="C4">
-        <v>0.0962401253910059</v>
+        <v>0.3760843217483227</v>
       </c>
       <c r="D4">
-        <v>0.2142908285513698</v>
+        <v>0.3053857047249693</v>
       </c>
       <c r="E4">
-        <v>0.05751285478061874</v>
+        <v>0.0332622835660743</v>
       </c>
       <c r="F4">
-        <v>3.581514854234285</v>
+        <v>5.361376330947223</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2413381715008285</v>
+        <v>0.2599289620537775</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.014412456097944</v>
+        <v>2.574390697253648</v>
       </c>
       <c r="C5">
-        <v>0.0921332781626063</v>
+        <v>0.3594820757324158</v>
       </c>
       <c r="D5">
-        <v>0.2117925400974059</v>
+        <v>0.2966154138386941</v>
       </c>
       <c r="E5">
-        <v>0.05742872881557304</v>
+        <v>0.03287523313441376</v>
       </c>
       <c r="F5">
-        <v>3.532417022318725</v>
+        <v>5.174370822251916</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.239441537443227</v>
+        <v>0.2501285801123174</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.010910423114012</v>
+        <v>2.555609946881475</v>
       </c>
       <c r="C6">
-        <v>0.09145195467456801</v>
+        <v>0.3567378376071417</v>
       </c>
       <c r="D6">
-        <v>0.211377828750912</v>
+        <v>0.2951668600959323</v>
       </c>
       <c r="E6">
-        <v>0.05741485368395338</v>
+        <v>0.03281145695861376</v>
       </c>
       <c r="F6">
-        <v>3.524281425495758</v>
+        <v>5.14348467832167</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2391294133544761</v>
+        <v>0.2485110672403437</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035402883674635</v>
+        <v>2.686617410685415</v>
       </c>
       <c r="C7">
-        <v>0.09618469726524381</v>
+        <v>0.3758595472473019</v>
       </c>
       <c r="D7">
-        <v>0.2142571268249185</v>
+        <v>0.3052668908644449</v>
       </c>
       <c r="E7">
-        <v>0.05751171391678689</v>
+        <v>0.03325702983736178</v>
       </c>
       <c r="F7">
-        <v>3.580851553921462</v>
+        <v>5.358842882477063</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.241312404213744</v>
+        <v>0.2597961160941935</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.148073715398198</v>
+        <v>3.282891889493385</v>
       </c>
       <c r="C8">
-        <v>0.1171641256604516</v>
+        <v>0.4624007760193081</v>
       </c>
       <c r="D8">
-        <v>0.2269855772361637</v>
+        <v>0.351137402506069</v>
       </c>
       <c r="E8">
-        <v>0.05795295624357522</v>
+        <v>0.03530368749230384</v>
       </c>
       <c r="F8">
-        <v>3.833029101149691</v>
+        <v>6.33672287938694</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2513561983885779</v>
+        <v>0.3111997331511986</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.385782493052375</v>
+        <v>4.541540760341491</v>
       </c>
       <c r="C9">
-        <v>0.158701129582397</v>
+        <v>0.6437437178673235</v>
       </c>
       <c r="D9">
-        <v>0.2520696190262015</v>
+        <v>0.4477488117743889</v>
       </c>
       <c r="E9">
-        <v>0.05886958666623165</v>
+        <v>0.03970568219359194</v>
       </c>
       <c r="F9">
-        <v>4.337368848030678</v>
+        <v>8.39210107700336</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2725515286154945</v>
+        <v>0.4197629133533809</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.570925862391903</v>
+        <v>5.549247310467535</v>
       </c>
       <c r="C10">
-        <v>0.1895164179622668</v>
+        <v>0.7887119663064652</v>
       </c>
       <c r="D10">
-        <v>0.2706153454228968</v>
+        <v>0.5251191044736458</v>
       </c>
       <c r="E10">
-        <v>0.05957602564258835</v>
+        <v>0.0432943371444221</v>
       </c>
       <c r="F10">
-        <v>4.714570110744347</v>
+        <v>10.03166138618593</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2890626982863296</v>
+        <v>0.5065973390482554</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.657496254550779</v>
+        <v>6.033866593517359</v>
       </c>
       <c r="C11">
-        <v>0.2036124836000965</v>
+        <v>0.8585604712307031</v>
       </c>
       <c r="D11">
-        <v>0.2790866267354488</v>
+        <v>0.5623679927703336</v>
       </c>
       <c r="E11">
-        <v>0.05990494031451554</v>
+        <v>0.04503767235568112</v>
       </c>
       <c r="F11">
-        <v>4.887765828894601</v>
+        <v>10.81858630513443</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.29678359886816</v>
+        <v>0.5483021741223553</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.69062076682377</v>
+        <v>6.22201876973196</v>
       </c>
       <c r="C12">
-        <v>0.2089625199811849</v>
+        <v>0.8857171566086492</v>
       </c>
       <c r="D12">
-        <v>0.2823001902308988</v>
+        <v>0.5768387970845197</v>
       </c>
       <c r="E12">
-        <v>0.06003060721674203</v>
+        <v>0.04571737791963848</v>
       </c>
       <c r="F12">
-        <v>4.953593037336759</v>
+        <v>11.1238511983355</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2997379184984936</v>
+        <v>0.5644820122679448</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.68347151721224</v>
+        <v>6.181274613748656</v>
       </c>
       <c r="C13">
-        <v>0.2078097377757047</v>
+        <v>0.8798343604684646</v>
       </c>
       <c r="D13">
-        <v>0.2816078286330992</v>
+        <v>0.5737047072192354</v>
       </c>
       <c r="E13">
-        <v>0.06000349260095206</v>
+        <v>0.04557005563659544</v>
       </c>
       <c r="F13">
-        <v>4.939405041871169</v>
+        <v>11.05775841299595</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2991002862563619</v>
+        <v>0.5609788899709258</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.660214543484358</v>
+        <v>6.049247366306076</v>
       </c>
       <c r="C14">
-        <v>0.2040523850908187</v>
+        <v>0.8607795499770248</v>
       </c>
       <c r="D14">
-        <v>0.2793508909241211</v>
+        <v>0.5635507315482187</v>
       </c>
       <c r="E14">
-        <v>0.05991525651617025</v>
+        <v>0.04509317687880632</v>
       </c>
       <c r="F14">
-        <v>4.893176564512942</v>
+        <v>10.8435459522446</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2970260372742501</v>
+        <v>0.5496250826459743</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.646013676394716</v>
+        <v>5.969009903640426</v>
       </c>
       <c r="C15">
-        <v>0.2017525102867523</v>
+        <v>0.8492048496784719</v>
       </c>
       <c r="D15">
-        <v>0.2779692104936089</v>
+        <v>0.5573810731993376</v>
       </c>
       <c r="E15">
-        <v>0.0598613552913303</v>
+        <v>0.04480374083884975</v>
       </c>
       <c r="F15">
-        <v>4.864892098538348</v>
+        <v>10.71332752975832</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.295759494666072</v>
+        <v>0.5427233108496097</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.565315914551661</v>
+        <v>5.518173654377449</v>
       </c>
       <c r="C16">
-        <v>0.1885968570958596</v>
+        <v>0.7842374021913088</v>
       </c>
       <c r="D16">
-        <v>0.2700624840178136</v>
+        <v>0.5227317750152451</v>
       </c>
       <c r="E16">
-        <v>0.05955468465093716</v>
+        <v>0.04318292654067335</v>
       </c>
       <c r="F16">
-        <v>4.703284591627494</v>
+        <v>9.981170846457644</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2885623767262615</v>
+        <v>0.5039218383757742</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.51641497859498</v>
+        <v>5.248873419965832</v>
       </c>
       <c r="C17">
-        <v>0.1805469389481686</v>
+        <v>0.7454747586393466</v>
       </c>
       <c r="D17">
-        <v>0.2652213400374137</v>
+        <v>0.5020467363878254</v>
       </c>
       <c r="E17">
-        <v>0.05936850623124101</v>
+        <v>0.04221932091689595</v>
       </c>
       <c r="F17">
-        <v>4.60456242849321</v>
+        <v>9.543421911749761</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2842012165261849</v>
+        <v>0.4807282117885023</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.488509151719484</v>
+        <v>5.096384200570526</v>
       </c>
       <c r="C18">
-        <v>0.1759241264217053</v>
+        <v>0.7235363521972431</v>
       </c>
       <c r="D18">
-        <v>0.2624400706334598</v>
+        <v>0.4903374828096503</v>
       </c>
       <c r="E18">
-        <v>0.0592621304535399</v>
+        <v>0.04167525662887606</v>
       </c>
       <c r="F18">
-        <v>4.547930452495763</v>
+        <v>9.295410274843249</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2817125234062985</v>
+        <v>0.4675902729152881</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.479098486112093</v>
+        <v>5.045143586199401</v>
       </c>
       <c r="C19">
-        <v>0.1743601448848153</v>
+        <v>0.7161657639992427</v>
       </c>
       <c r="D19">
-        <v>0.2614989146065057</v>
+        <v>0.4864033573225299</v>
       </c>
       <c r="E19">
-        <v>0.05922623438877395</v>
+        <v>0.04149269633225217</v>
       </c>
       <c r="F19">
-        <v>4.528781339271575</v>
+        <v>9.212048268108305</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2808732714517248</v>
+        <v>0.4631748534537365</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.521597692578609</v>
+        <v>5.277286272748483</v>
       </c>
       <c r="C20">
-        <v>0.181403105509844</v>
+        <v>0.7495632276865081</v>
       </c>
       <c r="D20">
-        <v>0.2657363490518492</v>
+        <v>0.5042287512918051</v>
       </c>
       <c r="E20">
-        <v>0.05938825164811945</v>
+        <v>0.04232082159434647</v>
       </c>
       <c r="F20">
-        <v>4.615055926583352</v>
+        <v>9.589621880107387</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2846634245373139</v>
+        <v>0.4831758012269631</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.66703635642574</v>
+        <v>6.087893207044146</v>
       </c>
       <c r="C21">
-        <v>0.2051556729606432</v>
+        <v>0.8663559011561688</v>
       </c>
       <c r="D21">
-        <v>0.2800136488241947</v>
+        <v>0.5665226435538102</v>
       </c>
       <c r="E21">
-        <v>0.05994114313185506</v>
+        <v>0.04523268450402007</v>
       </c>
       <c r="F21">
-        <v>4.906748339658407</v>
+        <v>10.90625554687171</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2976344612404915</v>
+        <v>0.5529488272902654</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.764085669484757</v>
+        <v>6.64525944856166</v>
       </c>
       <c r="C22">
-        <v>0.2207506932515173</v>
+        <v>0.9468998621782987</v>
       </c>
       <c r="D22">
-        <v>0.2893780780115662</v>
+        <v>0.6094103914120126</v>
       </c>
       <c r="E22">
-        <v>0.06030899662811606</v>
+        <v>0.04725198571976819</v>
       </c>
       <c r="F22">
-        <v>5.098800512015487</v>
+        <v>11.81001835727511</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.306290233872204</v>
+        <v>0.6008507324658865</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.712104371091243</v>
+        <v>6.344916703530316</v>
       </c>
       <c r="C23">
-        <v>0.2124204924413675</v>
+        <v>0.9034688332933456</v>
       </c>
       <c r="D23">
-        <v>0.2843768244978833</v>
+        <v>0.5862938040408778</v>
       </c>
       <c r="E23">
-        <v>0.06011206150081705</v>
+        <v>0.04616219106599573</v>
       </c>
       <c r="F23">
-        <v>4.99616557335878</v>
+        <v>11.32316903632852</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.301654021518786</v>
+        <v>0.575046511171621</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.519253940143017</v>
+        <v>5.264433611665481</v>
       </c>
       <c r="C24">
-        <v>0.1810160165042589</v>
+        <v>0.7477137612801528</v>
       </c>
       <c r="D24">
-        <v>0.2655035073959198</v>
+        <v>0.503241697906418</v>
       </c>
       <c r="E24">
-        <v>0.05937932268940038</v>
+        <v>0.04227490248345056</v>
       </c>
       <c r="F24">
-        <v>4.610311428477075</v>
+        <v>9.568723585637144</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2844544024032416</v>
+        <v>0.4820686394380687</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.319653025489401</v>
+        <v>4.188839329033669</v>
       </c>
       <c r="C25">
-        <v>0.1474160792265025</v>
+        <v>0.5930130923995023</v>
       </c>
       <c r="D25">
-        <v>0.2452662655368698</v>
+        <v>0.4206837043529958</v>
       </c>
       <c r="E25">
-        <v>0.05861594346739274</v>
+        <v>0.03846235118301422</v>
       </c>
       <c r="F25">
-        <v>4.199810963210666</v>
+        <v>7.817094376496328</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2666545708321735</v>
+        <v>0.3893454176644582</v>
       </c>
       <c r="M25">
         <v>0</v>
